--- a/po_analysis_by_asin/B0CGH12MPN_po_data.xlsx
+++ b/po_analysis_by_asin/B0CGH12MPN_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>3</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45327</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>60</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45432</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>28</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45446</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>86</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>54</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>3</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>60</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>30</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>140</v>

--- a/po_analysis_by_asin/B0CGH12MPN_po_data.xlsx
+++ b/po_analysis_by_asin/B0CGH12MPN_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -525,7 +526,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -559,6 +560,243 @@
       </c>
       <c r="B5" t="n">
         <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>23</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-14.49030783587633</v>
+      </c>
+      <c r="D2" t="n">
+        <v>58.76085296754226</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>28</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-8.744382106312658</v>
+      </c>
+      <c r="D3" t="n">
+        <v>65.35801653637775</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>44</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.031220819028939</v>
+      </c>
+      <c r="D4" t="n">
+        <v>80.6169372037256</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>45</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.074445377945349</v>
+      </c>
+      <c r="D5" t="n">
+        <v>83.49402246792513</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>46</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.416116852768758</v>
+      </c>
+      <c r="D6" t="n">
+        <v>80.52435112132835</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>47</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11.16276316575149</v>
+      </c>
+      <c r="D7" t="n">
+        <v>83.71450895482295</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>48</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13.44969917201085</v>
+      </c>
+      <c r="D8" t="n">
+        <v>84.90181384875838</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>49</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12.34037826524282</v>
+      </c>
+      <c r="D9" t="n">
+        <v>86.64763177062878</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>50</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13.25092080184036</v>
+      </c>
+      <c r="D10" t="n">
+        <v>87.11811898859216</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>51</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13.72709386422437</v>
+      </c>
+      <c r="D11" t="n">
+        <v>87.82846363111928</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>52</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14.38126913177011</v>
+      </c>
+      <c r="D12" t="n">
+        <v>89.7905331783107</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>53</v>
+      </c>
+      <c r="C13" t="n">
+        <v>14.89949512499028</v>
+      </c>
+      <c r="D13" t="n">
+        <v>92.14689084923822</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>54</v>
+      </c>
+      <c r="C14" t="n">
+        <v>18.32990386292177</v>
+      </c>
+      <c r="D14" t="n">
+        <v>89.13157014150995</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>55</v>
+      </c>
+      <c r="C15" t="n">
+        <v>15.34747428126287</v>
+      </c>
+      <c r="D15" t="n">
+        <v>90.60642675394641</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CGH12MPN_po_data.xlsx
+++ b/po_analysis_by_asin/B0CGH12MPN_po_data.xlsx
@@ -573,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,16 +592,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -610,12 +600,6 @@
       <c r="B2" t="n">
         <v>23</v>
       </c>
-      <c r="C2" t="n">
-        <v>-14.49030783587633</v>
-      </c>
-      <c r="D2" t="n">
-        <v>58.76085296754226</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -624,12 +608,6 @@
       <c r="B3" t="n">
         <v>28</v>
       </c>
-      <c r="C3" t="n">
-        <v>-8.744382106312658</v>
-      </c>
-      <c r="D3" t="n">
-        <v>65.35801653637775</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -638,12 +616,6 @@
       <c r="B4" t="n">
         <v>44</v>
       </c>
-      <c r="C4" t="n">
-        <v>7.031220819028939</v>
-      </c>
-      <c r="D4" t="n">
-        <v>80.6169372037256</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -652,12 +624,6 @@
       <c r="B5" t="n">
         <v>45</v>
       </c>
-      <c r="C5" t="n">
-        <v>9.074445377945349</v>
-      </c>
-      <c r="D5" t="n">
-        <v>83.49402246792513</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -666,12 +632,6 @@
       <c r="B6" t="n">
         <v>46</v>
       </c>
-      <c r="C6" t="n">
-        <v>6.416116852768758</v>
-      </c>
-      <c r="D6" t="n">
-        <v>80.52435112132835</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -680,12 +640,6 @@
       <c r="B7" t="n">
         <v>47</v>
       </c>
-      <c r="C7" t="n">
-        <v>11.16276316575149</v>
-      </c>
-      <c r="D7" t="n">
-        <v>83.71450895482295</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -694,12 +648,6 @@
       <c r="B8" t="n">
         <v>48</v>
       </c>
-      <c r="C8" t="n">
-        <v>13.44969917201085</v>
-      </c>
-      <c r="D8" t="n">
-        <v>84.90181384875838</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -708,12 +656,6 @@
       <c r="B9" t="n">
         <v>49</v>
       </c>
-      <c r="C9" t="n">
-        <v>12.34037826524282</v>
-      </c>
-      <c r="D9" t="n">
-        <v>86.64763177062878</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -722,12 +664,6 @@
       <c r="B10" t="n">
         <v>50</v>
       </c>
-      <c r="C10" t="n">
-        <v>13.25092080184036</v>
-      </c>
-      <c r="D10" t="n">
-        <v>87.11811898859216</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -736,12 +672,6 @@
       <c r="B11" t="n">
         <v>51</v>
       </c>
-      <c r="C11" t="n">
-        <v>13.72709386422437</v>
-      </c>
-      <c r="D11" t="n">
-        <v>87.82846363111928</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -750,12 +680,6 @@
       <c r="B12" t="n">
         <v>52</v>
       </c>
-      <c r="C12" t="n">
-        <v>14.38126913177011</v>
-      </c>
-      <c r="D12" t="n">
-        <v>89.7905331783107</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -764,12 +688,6 @@
       <c r="B13" t="n">
         <v>53</v>
       </c>
-      <c r="C13" t="n">
-        <v>14.89949512499028</v>
-      </c>
-      <c r="D13" t="n">
-        <v>92.14689084923822</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -778,12 +696,6 @@
       <c r="B14" t="n">
         <v>54</v>
       </c>
-      <c r="C14" t="n">
-        <v>18.32990386292177</v>
-      </c>
-      <c r="D14" t="n">
-        <v>89.13157014150995</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -791,12 +703,6 @@
       </c>
       <c r="B15" t="n">
         <v>55</v>
-      </c>
-      <c r="C15" t="n">
-        <v>15.34747428126287</v>
-      </c>
-      <c r="D15" t="n">
-        <v>90.60642675394641</v>
       </c>
     </row>
   </sheetData>
